--- a/backend/web/export_file/template_aeonmobile.xlsx
+++ b/backend/web/export_file/template_aeonmobile.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t xml:space="preserve">氏名      </t>
     <rPh sb="0" eb="2">
@@ -1357,20 +1357,11 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1378,22 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1414,23 +1389,42 @@
     <xf numFmtId="20" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1448,11 +1442,17 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="3704" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000780E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000780E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1720,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1749,7 +1749,7 @@
         <xdr:cNvPr id="3401" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000490D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000490D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1850,7 @@
         <xdr:cNvPr id="3706" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A0E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007A0E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1877,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1906,7 +1906,7 @@
         <xdr:cNvPr id="3707" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B0E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007B0E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1933,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1962,7 +1962,7 @@
         <xdr:cNvPr id="3404" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C0D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C0D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2201,7 @@
         <xdr:cNvPr id="3405" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D0D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D0D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2440,7 @@
         <xdr:cNvPr id="3710" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E0E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E0E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2496,7 +2496,7 @@
         <xdr:cNvPr id="3407" name="Rectangular Callout 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F0D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F0D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2597,7 @@
         <xdr:cNvPr id="3408" name="Rectangular Callout 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000500D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000500D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2682,7 @@
         <xdr:cNvPr id="3713" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000810E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000810E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2738,7 +2738,7 @@
         <xdr:cNvPr id="3714" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000820E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000820E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2765,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2794,7 +2794,7 @@
         <xdr:cNvPr id="3411" name="Rectangular Callout 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000530D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000530D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2879,7 @@
         <xdr:cNvPr id="3412" name="Rectangular Callout 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000540D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000540D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2964,7 @@
         <xdr:cNvPr id="3717" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000850E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000850E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2991,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3020,7 +3020,7 @@
         <xdr:cNvPr id="3718" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000860E0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000860E0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3047,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3076,7 +3076,7 @@
         <xdr:cNvPr id="3415" name="Rectangular Callout 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000570D0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000570D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3496,7 +3496,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3520,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB228"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="12"/>
@@ -3591,10 +3591,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="127" t="s">
+      <c r="J2" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="128"/>
+      <c r="K2" s="133"/>
       <c r="L2" s="87" t="s">
         <v>37</v>
       </c>
@@ -3607,11 +3607,11 @@
       <c r="S2" s="7">
         <v>0</v>
       </c>
-      <c r="T2" s="132" t="s">
+      <c r="T2" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
       <c r="W2" s="81">
         <v>0.52083333333333304</v>
       </c>
@@ -3639,11 +3639,11 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="4"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
       <c r="W3" s="82">
         <v>0.5625</v>
       </c>
@@ -3671,11 +3671,11 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="136" t="s">
+      <c r="T4" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
       <c r="W4" s="12">
         <f>W3-W2</f>
         <v>4.1666666666666997E-2</v>
@@ -3776,11 +3776,11 @@
       <c r="I7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="131" t="s">
+      <c r="J7" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
       <c r="M7" s="29"/>
       <c r="N7" s="68"/>
       <c r="O7" s="29"/>
@@ -3973,24 +3973,24 @@
     </row>
     <row r="11" spans="1:54" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="122" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="107"/>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="129" t="s">
+      <c r="I11" s="138"/>
+      <c r="J11" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="130"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="106" t="s">
         <v>49</v>
       </c>
@@ -4060,48 +4060,36 @@
         <f t="shared" ref="C12:C41" si="0">IF($B12="","",CHOOSE(WEEKDAY(DATE(YEAR($L$1),MONTH($L$1),$B12),2),"月","火","水","木","金","土","日"))</f>
         <v>木</v>
       </c>
-      <c r="D12" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E12" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="112"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="46">
-        <f>IF(F12="","",R12+S12-T12-U12-V12-W12)</f>
-        <v>8</v>
-      </c>
-      <c r="K12" s="47" t="str">
-        <f>IF(J12="","","h")</f>
-        <v>h</v>
-      </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="126"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="123"/>
       <c r="N12" s="64"/>
-      <c r="O12" s="48">
+      <c r="O12" s="48" t="str">
         <f>IF(F12="","",F12-D12)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P12" s="48">
+        <v/>
+      </c>
+      <c r="P12" s="48" t="str">
         <f>IF(F12="","",O12-Q12)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q12" s="49">
+        <v/>
+      </c>
+      <c r="Q12" s="49" t="str">
         <f>IF(F12="","",IF(D12&gt;=$W$3,$S$2,IF(F12&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R12" s="50">
+        <v/>
+      </c>
+      <c r="R12" s="50" t="str">
         <f>IF(F12="","",HOUR(P12))</f>
-        <v>8</v>
-      </c>
-      <c r="S12" s="51">
+        <v/>
+      </c>
+      <c r="S12" s="51" t="str">
         <f>IF(F12="","",(MINUTE(P12)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
@@ -4117,48 +4105,36 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="D13" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="112"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="46">
-        <f t="shared" ref="J13" si="1">IF(F13="","",R13+S13-T13-U13-V13-W13)</f>
-        <v>8</v>
-      </c>
-      <c r="K13" s="47" t="str">
-        <f t="shared" ref="K13:K35" si="2">IF(J13="","","h")</f>
-        <v>h</v>
-      </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="126"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="123"/>
       <c r="N13" s="64"/>
-      <c r="O13" s="48">
+      <c r="O13" s="48" t="str">
         <f>IF(F13="","",F13-D13)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P13" s="48">
+        <v/>
+      </c>
+      <c r="P13" s="48" t="str">
         <f>IF(F13="","",O13-Q13)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q13" s="49">
+        <v/>
+      </c>
+      <c r="Q13" s="49" t="str">
         <f>IF(F13="","",IF(D13&gt;=$W$3,$S$2,IF(F13&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R13" s="50">
+        <v/>
+      </c>
+      <c r="R13" s="50" t="str">
         <f>IF(F13="","",HOUR(P13))</f>
-        <v>8</v>
-      </c>
-      <c r="S13" s="51">
+        <v/>
+      </c>
+      <c r="S13" s="51" t="str">
         <f>IF(F13="","",(MINUTE(P13)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T13" s="52"/>
       <c r="U13" s="52"/>
@@ -4178,37 +4154,37 @@
       <c r="E14" s="110"/>
       <c r="F14" s="111"/>
       <c r="G14" s="112"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="46" t="str">
         <f>IF(F14="","",R14+S14-T14-U14-V14-W14)</f>
         <v/>
       </c>
       <c r="K14" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L14" s="125"/>
-      <c r="M14" s="126"/>
+        <f t="shared" ref="K13:K35" si="1">IF(J14="","","h")</f>
+        <v/>
+      </c>
+      <c r="L14" s="122"/>
+      <c r="M14" s="123"/>
       <c r="N14" s="64"/>
       <c r="O14" s="48" t="str">
-        <f t="shared" ref="O14:O36" si="3">IF(F14="","",F14-D14)</f>
+        <f t="shared" ref="O14:O36" si="2">IF(F14="","",F14-D14)</f>
         <v/>
       </c>
       <c r="P14" s="48" t="str">
-        <f t="shared" ref="P14:P36" si="4">IF(F14="","",O14-Q14)</f>
+        <f t="shared" ref="P14:P36" si="3">IF(F14="","",O14-Q14)</f>
         <v/>
       </c>
       <c r="Q14" s="49" t="str">
-        <f t="shared" ref="Q14:Q36" si="5">IF(F14="","",IF(D14&gt;=$W$3,$S$2,IF(F14&lt;=$W$2,$S$2,$W$4)))</f>
+        <f t="shared" ref="Q14:Q36" si="4">IF(F14="","",IF(D14&gt;=$W$3,$S$2,IF(F14&lt;=$W$2,$S$2,$W$4)))</f>
         <v/>
       </c>
       <c r="R14" s="50" t="str">
-        <f t="shared" ref="R14:R36" si="6">IF(F14="","",HOUR(P14))</f>
+        <f t="shared" ref="R14:R36" si="5">IF(F14="","",HOUR(P14))</f>
         <v/>
       </c>
       <c r="S14" s="51" t="str">
-        <f t="shared" ref="S14:S36" si="7">IF(F14="","",(MINUTE(P14)/60))</f>
+        <f t="shared" ref="S14:S36" si="6">IF(F14="","",(MINUTE(P14)/60))</f>
         <v/>
       </c>
       <c r="T14" s="52"/>
@@ -4229,18 +4205,18 @@
       <c r="E15" s="110"/>
       <c r="F15" s="111"/>
       <c r="G15" s="112"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="46" t="str">
-        <f t="shared" ref="J15:J41" si="8">IF(F15="","",R15+S15-T15-U15-V15-W15)</f>
+        <f t="shared" ref="J15:J41" si="7">IF(F15="","",R15+S15-T15-U15-V15-W15)</f>
         <v/>
       </c>
       <c r="K15" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L15" s="125"/>
-      <c r="M15" s="126"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" s="122"/>
+      <c r="M15" s="123"/>
       <c r="N15" s="64"/>
       <c r="O15" s="48" t="str">
         <f>IF(F15="","",F15-D15)</f>
@@ -4276,48 +4252,36 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="D16" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="112"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K16" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="123"/>
       <c r="N16" s="64"/>
-      <c r="O16" s="48">
+      <c r="O16" s="48" t="str">
         <f>IF(F16="","",F16-D16)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P16" s="48">
+        <v/>
+      </c>
+      <c r="P16" s="48" t="str">
         <f>IF(F16="","",O16-Q16)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q16" s="49">
+        <v/>
+      </c>
+      <c r="Q16" s="49" t="str">
         <f>IF(F16="","",IF(D16&gt;=$W$3,$S$2,IF(F16&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R16" s="50">
+        <v/>
+      </c>
+      <c r="R16" s="50" t="str">
         <f>IF(F16="","",HOUR(P16))</f>
-        <v>8</v>
-      </c>
-      <c r="S16" s="51">
+        <v/>
+      </c>
+      <c r="S16" s="51" t="str">
         <f>IF(F16="","",(MINUTE(P16)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
@@ -4333,48 +4297,36 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="D17" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E17" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="112"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K17" s="47" t="str">
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="48">
+        <v/>
+      </c>
+      <c r="P17" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P17" s="48">
+        <v/>
+      </c>
+      <c r="Q17" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q17" s="49">
+        <v/>
+      </c>
+      <c r="R17" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R17" s="50">
+        <v/>
+      </c>
+      <c r="S17" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S17" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
@@ -4390,48 +4342,36 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="D18" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E18" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="112"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K18" s="47" t="str">
-        <f>IF(J18="","","h")</f>
-        <v>h</v>
-      </c>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="123"/>
       <c r="N18" s="64"/>
-      <c r="O18" s="48">
+      <c r="O18" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P18" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P18" s="48">
+        <v/>
+      </c>
+      <c r="Q18" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q18" s="49">
+        <v/>
+      </c>
+      <c r="R18" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R18" s="50">
+        <v/>
+      </c>
+      <c r="S18" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S18" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T18" s="52"/>
       <c r="U18" s="52"/>
@@ -4447,48 +4387,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D19" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E19" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="112"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K19" s="47" t="str">
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="48">
+        <v/>
+      </c>
+      <c r="P19" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P19" s="48">
+        <v/>
+      </c>
+      <c r="Q19" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q19" s="49">
+        <v/>
+      </c>
+      <c r="R19" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R19" s="50">
+        <v/>
+      </c>
+      <c r="S19" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S19" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T19" s="52"/>
       <c r="U19" s="52"/>
@@ -4504,48 +4432,36 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="D20" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="112"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K20" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="64"/>
-      <c r="O20" s="48">
+      <c r="O20" s="48" t="str">
         <f>IF(F20="","",F20-D20)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P20" s="48">
+        <v/>
+      </c>
+      <c r="P20" s="48" t="str">
         <f>IF(F20="","",O20-Q20)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q20" s="49">
+        <v/>
+      </c>
+      <c r="Q20" s="49" t="str">
         <f>IF(F20="","",IF(D20&gt;=$W$3,$S$2,IF(F20&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R20" s="50">
+        <v/>
+      </c>
+      <c r="R20" s="50" t="str">
         <f>IF(F20="","",HOUR(P20))</f>
-        <v>8</v>
-      </c>
-      <c r="S20" s="51">
+        <v/>
+      </c>
+      <c r="S20" s="51" t="str">
         <f>IF(F20="","",(MINUTE(P20)/60))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T20" s="52"/>
       <c r="U20" s="52"/>
@@ -4565,37 +4481,31 @@
       <c r="E21" s="110"/>
       <c r="F21" s="111"/>
       <c r="G21" s="112"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K21" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="64"/>
       <c r="O21" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P21" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P21" s="48" t="str">
+      <c r="Q21" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q21" s="49" t="str">
+      <c r="R21" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R21" s="50" t="str">
+      <c r="S21" s="51" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S21" s="51" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T21" s="52"/>
@@ -4616,18 +4526,18 @@
       <c r="E22" s="110"/>
       <c r="F22" s="111"/>
       <c r="G22" s="112"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
       <c r="J22" s="46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K22" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" s="122"/>
+      <c r="M22" s="123"/>
       <c r="N22" s="64"/>
       <c r="O22" s="48" t="str">
         <f>IF(F22="","",F22-D22)</f>
@@ -4663,48 +4573,36 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="D23" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E23" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="112"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K23" s="47" t="str">
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="48">
+        <v/>
+      </c>
+      <c r="P23" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P23" s="48">
+        <v/>
+      </c>
+      <c r="Q23" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q23" s="49">
+        <v/>
+      </c>
+      <c r="R23" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R23" s="50">
+        <v/>
+      </c>
+      <c r="S23" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S23" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T23" s="52"/>
       <c r="U23" s="52"/>
@@ -4720,48 +4618,36 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="D24" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="112"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K24" s="47" t="str">
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="48">
+        <v/>
+      </c>
+      <c r="P24" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P24" s="48">
+        <v/>
+      </c>
+      <c r="Q24" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q24" s="49">
+        <v/>
+      </c>
+      <c r="R24" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R24" s="50">
+        <v/>
+      </c>
+      <c r="S24" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S24" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T24" s="52"/>
       <c r="U24" s="52"/>
@@ -4777,48 +4663,36 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="D25" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E25" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D25" s="109"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="112"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K25" s="47" t="str">
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="48">
+        <v/>
+      </c>
+      <c r="P25" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P25" s="48">
+        <v/>
+      </c>
+      <c r="Q25" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q25" s="49">
+        <v/>
+      </c>
+      <c r="R25" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R25" s="50">
+        <v/>
+      </c>
+      <c r="S25" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S25" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T25" s="52"/>
       <c r="U25" s="52"/>
@@ -4834,48 +4708,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D26" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E26" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="112"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K26" s="47" t="str">
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="48">
+        <v/>
+      </c>
+      <c r="P26" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P26" s="48">
+        <v/>
+      </c>
+      <c r="Q26" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q26" s="49">
+        <v/>
+      </c>
+      <c r="R26" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R26" s="50">
+        <v/>
+      </c>
+      <c r="S26" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S26" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
@@ -4891,48 +4753,36 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="D27" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E27" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="112"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K27" s="47" t="str">
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="48">
+        <v/>
+      </c>
+      <c r="P27" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P27" s="48">
+        <v/>
+      </c>
+      <c r="Q27" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q27" s="49">
+        <v/>
+      </c>
+      <c r="R27" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R27" s="50">
+        <v/>
+      </c>
+      <c r="S27" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S27" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T27" s="52"/>
       <c r="U27" s="52"/>
@@ -4952,37 +4802,31 @@
       <c r="E28" s="110"/>
       <c r="F28" s="111"/>
       <c r="G28" s="112"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K28" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="64"/>
       <c r="O28" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P28" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P28" s="48" t="str">
+      <c r="Q28" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q28" s="49" t="str">
+      <c r="R28" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R28" s="50" t="str">
+      <c r="S28" s="51" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S28" s="51" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T28" s="52"/>
@@ -5003,37 +4847,31 @@
       <c r="E29" s="110"/>
       <c r="F29" s="111"/>
       <c r="G29" s="112"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K29" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="64"/>
       <c r="O29" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P29" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P29" s="48" t="str">
+      <c r="Q29" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q29" s="49" t="str">
+      <c r="R29" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R29" s="50" t="str">
+      <c r="S29" s="51" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S29" s="51" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T29" s="52"/>
@@ -5050,48 +4888,36 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="D30" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E30" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="112"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K30" s="47" t="str">
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="48">
+        <v/>
+      </c>
+      <c r="P30" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P30" s="48">
+        <v/>
+      </c>
+      <c r="Q30" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q30" s="49">
+        <v/>
+      </c>
+      <c r="R30" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R30" s="50">
+        <v/>
+      </c>
+      <c r="S30" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S30" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T30" s="52"/>
       <c r="U30" s="52"/>
@@ -5107,48 +4933,36 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="D31" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E31" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="112"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K31" s="47" t="str">
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="48">
+        <v/>
+      </c>
+      <c r="P31" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P31" s="48">
+        <v/>
+      </c>
+      <c r="Q31" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q31" s="49">
+        <v/>
+      </c>
+      <c r="R31" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R31" s="50">
+        <v/>
+      </c>
+      <c r="S31" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S31" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T31" s="52"/>
       <c r="U31" s="52"/>
@@ -5164,48 +4978,36 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="D32" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E32" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D32" s="109"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="112"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K32" s="47" t="str">
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="48">
+        <v/>
+      </c>
+      <c r="P32" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P32" s="48">
+        <v/>
+      </c>
+      <c r="Q32" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q32" s="49">
+        <v/>
+      </c>
+      <c r="R32" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R32" s="50">
+        <v/>
+      </c>
+      <c r="S32" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S32" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T32" s="52"/>
       <c r="U32" s="52"/>
@@ -5221,48 +5023,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D33" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E33" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D33" s="109"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="112"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K33" s="47" t="str">
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="48">
+        <v/>
+      </c>
+      <c r="P33" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P33" s="48">
+        <v/>
+      </c>
+      <c r="Q33" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q33" s="49">
+        <v/>
+      </c>
+      <c r="R33" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R33" s="50">
+        <v/>
+      </c>
+      <c r="S33" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S33" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T33" s="52"/>
       <c r="U33" s="52"/>
@@ -5278,48 +5068,36 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="D34" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E34" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="112"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K34" s="47" t="str">
+      <c r="H34" s="130"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
-      </c>
-      <c r="L34" s="125"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="48">
+        <v/>
+      </c>
+      <c r="P34" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="P34" s="48">
+        <v/>
+      </c>
+      <c r="Q34" s="49" t="str">
         <f t="shared" si="4"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q34" s="49">
+        <v/>
+      </c>
+      <c r="R34" s="50" t="str">
         <f t="shared" si="5"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R34" s="50">
+        <v/>
+      </c>
+      <c r="S34" s="51" t="str">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="S34" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T34" s="52"/>
       <c r="U34" s="52"/>
@@ -5339,37 +5117,31 @@
       <c r="E35" s="110"/>
       <c r="F35" s="111"/>
       <c r="G35" s="112"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K35" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="123"/>
       <c r="N35" s="64"/>
       <c r="O35" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P35" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P35" s="48" t="str">
+      <c r="Q35" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q35" s="49" t="str">
+      <c r="R35" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R35" s="50" t="str">
+      <c r="S35" s="51" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S35" s="51" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T35" s="52"/>
@@ -5390,37 +5162,31 @@
       <c r="E36" s="110"/>
       <c r="F36" s="111"/>
       <c r="G36" s="112"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K36" s="47" t="str">
-        <f t="shared" ref="K36:K41" si="9">IF(J36="","","h")</f>
-        <v/>
-      </c>
-      <c r="L36" s="125"/>
-      <c r="M36" s="126"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="123"/>
       <c r="N36" s="64"/>
       <c r="O36" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P36" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P36" s="48" t="str">
+      <c r="Q36" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q36" s="49" t="str">
+      <c r="R36" s="50" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R36" s="50" t="str">
+      <c r="S36" s="51" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S36" s="51" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T36" s="52"/>
@@ -5437,48 +5203,36 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="D37" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E37" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="112"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K37" s="47" t="str">
-        <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="123"/>
       <c r="N37" s="64"/>
-      <c r="O37" s="48">
-        <f t="shared" ref="O37:O41" si="10">IF(F37="","",F37-D37)</f>
-        <v>0.375</v>
-      </c>
-      <c r="P37" s="48">
-        <f t="shared" ref="P37:P41" si="11">IF(F37="","",O37-Q37)</f>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q37" s="49">
-        <f t="shared" ref="Q37:Q41" si="12">IF(F37="","",IF(D37&gt;=$W$3,$S$2,IF(F37&lt;=$W$2,$S$2,$W$4)))</f>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R37" s="50">
-        <f t="shared" ref="R37:R41" si="13">IF(F37="","",HOUR(P37))</f>
-        <v>8</v>
-      </c>
-      <c r="S37" s="51">
-        <f t="shared" ref="S37:S41" si="14">IF(F37="","",(MINUTE(P37)/60))</f>
-        <v>0</v>
+      <c r="O37" s="48" t="str">
+        <f t="shared" ref="O37:O41" si="8">IF(F37="","",F37-D37)</f>
+        <v/>
+      </c>
+      <c r="P37" s="48" t="str">
+        <f t="shared" ref="P37:P41" si="9">IF(F37="","",O37-Q37)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="49" t="str">
+        <f t="shared" ref="Q37:Q41" si="10">IF(F37="","",IF(D37&gt;=$W$3,$S$2,IF(F37&lt;=$W$2,$S$2,$W$4)))</f>
+        <v/>
+      </c>
+      <c r="R37" s="50" t="str">
+        <f t="shared" ref="R37:R41" si="11">IF(F37="","",HOUR(P37))</f>
+        <v/>
+      </c>
+      <c r="S37" s="51" t="str">
+        <f t="shared" ref="S37:S41" si="12">IF(F37="","",(MINUTE(P37)/60))</f>
+        <v/>
       </c>
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
@@ -5494,48 +5248,36 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="D38" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E38" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D38" s="109"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="112"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="46">
+      <c r="H38" s="130"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="48" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K38" s="47" t="str">
+        <v/>
+      </c>
+      <c r="P38" s="48" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L38" s="125"/>
-      <c r="M38" s="126"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="48">
+        <v/>
+      </c>
+      <c r="Q38" s="49" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P38" s="48">
+        <v/>
+      </c>
+      <c r="R38" s="50" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q38" s="49">
+        <v/>
+      </c>
+      <c r="S38" s="51" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R38" s="50">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S38" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T38" s="52"/>
       <c r="U38" s="52"/>
@@ -5551,48 +5293,36 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="D39" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E39" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="112"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="46">
+      <c r="H39" s="130"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="48" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K39" s="47" t="str">
+        <v/>
+      </c>
+      <c r="P39" s="48" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L39" s="125"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="48">
+        <v/>
+      </c>
+      <c r="Q39" s="49" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P39" s="48">
+        <v/>
+      </c>
+      <c r="R39" s="50" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q39" s="49">
+        <v/>
+      </c>
+      <c r="S39" s="51" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R39" s="50">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S39" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T39" s="52"/>
       <c r="U39" s="52"/>
@@ -5608,48 +5338,36 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="D40" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E40" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D40" s="109"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="112"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="46">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K40" s="47" t="str">
-        <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
+      <c r="H40" s="130"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="113"/>
       <c r="M40" s="114"/>
       <c r="N40" s="64"/>
-      <c r="O40" s="48">
+      <c r="O40" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P40" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q40" s="49" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P40" s="48">
+        <v/>
+      </c>
+      <c r="R40" s="50" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q40" s="49">
+        <v/>
+      </c>
+      <c r="S40" s="51" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R40" s="50">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S40" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
@@ -5665,48 +5383,36 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="D41" s="109">
-        <v>0.375</v>
-      </c>
-      <c r="E41" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="111">
-        <v>0.75</v>
-      </c>
+      <c r="D41" s="109"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="112"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="46">
+      <c r="H41" s="130"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="48" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K41" s="47" t="str">
+        <v/>
+      </c>
+      <c r="P41" s="48" t="str">
         <f t="shared" si="9"/>
-        <v>h</v>
-      </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="48">
+        <v/>
+      </c>
+      <c r="Q41" s="49" t="str">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="P41" s="48">
+        <v/>
+      </c>
+      <c r="R41" s="50" t="str">
         <f t="shared" si="11"/>
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q41" s="49">
+        <v/>
+      </c>
+      <c r="S41" s="51" t="str">
         <f t="shared" si="12"/>
-        <v>4.1666666666666997E-2</v>
-      </c>
-      <c r="R41" s="50">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="S41" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T41" s="52"/>
       <c r="U41" s="52"/>
@@ -5719,7 +5425,7 @@
       <c r="C42" s="116"/>
       <c r="D42" s="117" t="str">
         <f>CONCATENATE("作業日数  ",COUNTA(D12:D41)," 日")</f>
-        <v>作業日数  22 日</v>
+        <v>作業日数  0 日</v>
       </c>
       <c r="E42" s="117"/>
       <c r="F42" s="117"/>
@@ -5733,27 +5439,27 @@
         <f>IF(J42="","","h")</f>
         <v/>
       </c>
-      <c r="L42" s="138"/>
-      <c r="M42" s="139"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="121"/>
       <c r="N42" s="71"/>
       <c r="O42" s="48" t="str">
-        <f t="shared" ref="O42" si="15">IF(F42="","",F42-D42)</f>
+        <f t="shared" ref="O42" si="13">IF(F42="","",F42-D42)</f>
         <v/>
       </c>
       <c r="P42" s="48" t="str">
-        <f t="shared" ref="P42" si="16">IF(F42="","",O42-Q42)</f>
+        <f t="shared" ref="P42" si="14">IF(F42="","",O42-Q42)</f>
         <v/>
       </c>
       <c r="Q42" s="49" t="str">
-        <f t="shared" ref="Q42" si="17">IF(F42="","",IF(D42&gt;=$W$3,$S$2,IF(F42&lt;=$W$2,$S$2,$W$4)))</f>
+        <f t="shared" ref="Q42" si="15">IF(F42="","",IF(D42&gt;=$W$3,$S$2,IF(F42&lt;=$W$2,$S$2,$W$4)))</f>
         <v/>
       </c>
       <c r="R42" s="50" t="str">
-        <f t="shared" ref="R42" si="18">IF(F42="","",HOUR(P42))</f>
+        <f t="shared" ref="R42" si="16">IF(F42="","",HOUR(P42))</f>
         <v/>
       </c>
       <c r="S42" s="51" t="str">
-        <f t="shared" ref="S42" si="19">IF(F42="","",(MINUTE(P42)/60))</f>
+        <f t="shared" ref="S42" si="17">IF(F42="","",(MINUTE(P42)/60))</f>
         <v/>
       </c>
       <c r="T42" s="52"/>
@@ -9449,17 +9155,48 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T4:V4"/>
@@ -9476,48 +9213,17 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="C12:C33 C37:C41">
@@ -9622,10 +9328,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="141"/>
+      <c r="K2" s="147"/>
       <c r="L2" s="87" t="s">
         <v>11</v>
       </c>
@@ -9638,11 +9344,11 @@
       <c r="S2" s="7">
         <v>0</v>
       </c>
-      <c r="T2" s="132" t="s">
+      <c r="T2" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
       <c r="W2" s="81">
         <v>0.5</v>
       </c>
@@ -9670,11 +9376,11 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="4"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
       <c r="W3" s="82">
         <v>0.54166666666666696</v>
       </c>
@@ -9702,11 +9408,11 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="136" t="s">
+      <c r="T4" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
       <c r="W4" s="12">
         <f>W3-W2</f>
         <v>4.1666666666666997E-2</v>
@@ -10007,24 +9713,24 @@
     </row>
     <row r="11" spans="1:54" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="142" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="142" t="s">
+      <c r="H11" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="143" t="s">
+      <c r="I11" s="138"/>
+      <c r="J11" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="130"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="104" t="s">
         <v>35</v>
       </c>
@@ -10098,8 +9804,8 @@
       <c r="E12" s="86"/>
       <c r="F12" s="95"/>
       <c r="G12" s="85"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="145"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="46" t="str">
         <f t="shared" ref="J12:J38" si="1">IF(F12="","",R12+S12-T12-U12-V12-W12)</f>
         <v/>
@@ -10108,8 +9814,8 @@
         <f t="shared" ref="K12:K42" si="2">IF(J12="","","h")</f>
         <v/>
       </c>
-      <c r="L12" s="146"/>
-      <c r="M12" s="147"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
       <c r="N12" s="64"/>
       <c r="O12" s="48" t="str">
         <f t="shared" ref="O12:O41" si="3">IF(F12="","",F12-D12)</f>
@@ -10149,8 +9855,8 @@
       <c r="E13" s="86"/>
       <c r="F13" s="95"/>
       <c r="G13" s="85"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10159,8 +9865,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="146"/>
-      <c r="M13" s="147"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145"/>
       <c r="N13" s="64"/>
       <c r="O13" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10206,10 +9912,10 @@
         <v>0.75</v>
       </c>
       <c r="G14" s="85"/>
-      <c r="H14" s="144" t="s">
+      <c r="H14" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10218,8 +9924,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
       <c r="N14" s="64"/>
       <c r="O14" s="48">
         <f t="shared" si="3"/>
@@ -10265,10 +9971,10 @@
         <v>0.75</v>
       </c>
       <c r="G15" s="85"/>
-      <c r="H15" s="144" t="s">
+      <c r="H15" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="145"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10277,8 +9983,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="145"/>
       <c r="N15" s="64"/>
       <c r="O15" s="48">
         <f t="shared" si="3"/>
@@ -10324,10 +10030,10 @@
         <v>0.75</v>
       </c>
       <c r="G16" s="85"/>
-      <c r="H16" s="144" t="s">
+      <c r="H16" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="145"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10336,8 +10042,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L16" s="146"/>
-      <c r="M16" s="147"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="145"/>
       <c r="N16" s="64"/>
       <c r="O16" s="48">
         <f t="shared" si="3"/>
@@ -10383,10 +10089,10 @@
         <v>0.75</v>
       </c>
       <c r="G17" s="85"/>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="145"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10395,8 +10101,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="145"/>
       <c r="N17" s="64"/>
       <c r="O17" s="48">
         <f t="shared" si="3"/>
@@ -10442,10 +10148,10 @@
         <v>0.75</v>
       </c>
       <c r="G18" s="85"/>
-      <c r="H18" s="144" t="s">
+      <c r="H18" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="145"/>
+      <c r="I18" s="143"/>
       <c r="J18" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10454,8 +10160,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
       <c r="N18" s="64"/>
       <c r="O18" s="48">
         <f t="shared" si="3"/>
@@ -10495,8 +10201,8 @@
       <c r="E19" s="86"/>
       <c r="F19" s="95"/>
       <c r="G19" s="85"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10505,8 +10211,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145"/>
       <c r="N19" s="64"/>
       <c r="O19" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10546,8 +10252,8 @@
       <c r="E20" s="86"/>
       <c r="F20" s="95"/>
       <c r="G20" s="85"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
       <c r="J20" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10556,8 +10262,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L20" s="146"/>
-      <c r="M20" s="147"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="64"/>
       <c r="O20" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10603,10 +10309,10 @@
         <v>0.75</v>
       </c>
       <c r="G21" s="85"/>
-      <c r="H21" s="144" t="s">
+      <c r="H21" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="145"/>
+      <c r="I21" s="143"/>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10615,8 +10321,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L21" s="146"/>
-      <c r="M21" s="147"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="145"/>
       <c r="N21" s="64"/>
       <c r="O21" s="48">
         <f t="shared" si="3"/>
@@ -10662,10 +10368,10 @@
         <v>0.75</v>
       </c>
       <c r="G22" s="85"/>
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="145"/>
+      <c r="I22" s="143"/>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10674,8 +10380,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L22" s="146"/>
-      <c r="M22" s="147"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145"/>
       <c r="N22" s="64"/>
       <c r="O22" s="48">
         <f t="shared" si="3"/>
@@ -10721,10 +10427,10 @@
         <v>0.75</v>
       </c>
       <c r="G23" s="85"/>
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="145"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10733,8 +10439,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L23" s="146"/>
-      <c r="M23" s="147"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="64"/>
       <c r="O23" s="48">
         <f t="shared" si="3"/>
@@ -10780,10 +10486,10 @@
         <v>0.75</v>
       </c>
       <c r="G24" s="85"/>
-      <c r="H24" s="144" t="s">
+      <c r="H24" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="145"/>
+      <c r="I24" s="143"/>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10792,8 +10498,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L24" s="146"/>
-      <c r="M24" s="147"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="64"/>
       <c r="O24" s="48">
         <f t="shared" si="3"/>
@@ -10839,10 +10545,10 @@
         <v>0.75</v>
       </c>
       <c r="G25" s="85"/>
-      <c r="H25" s="144" t="s">
+      <c r="H25" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="145"/>
+      <c r="I25" s="143"/>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10851,8 +10557,8 @@
         <f>IF(J25="","","h")</f>
         <v>h</v>
       </c>
-      <c r="L25" s="146"/>
-      <c r="M25" s="147"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="64"/>
       <c r="O25" s="48">
         <f t="shared" si="3"/>
@@ -10892,8 +10598,8 @@
       <c r="E26" s="86"/>
       <c r="F26" s="95"/>
       <c r="G26" s="85"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="145"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10902,8 +10608,8 @@
         <f>IF(J26="","","h")</f>
         <v/>
       </c>
-      <c r="L26" s="146"/>
-      <c r="M26" s="147"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145"/>
       <c r="N26" s="64"/>
       <c r="O26" s="48" t="str">
         <f t="shared" si="3"/>
@@ -10943,8 +10649,8 @@
       <c r="E27" s="86"/>
       <c r="F27" s="95"/>
       <c r="G27" s="85"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="145"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10953,8 +10659,8 @@
         <f>IF(J27="","","h")</f>
         <v/>
       </c>
-      <c r="L27" s="146"/>
-      <c r="M27" s="147"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="145"/>
       <c r="N27" s="64"/>
       <c r="O27" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11000,10 +10706,10 @@
         <v>0.75</v>
       </c>
       <c r="G28" s="85"/>
-      <c r="H28" s="144" t="s">
+      <c r="H28" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11012,8 +10718,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145"/>
       <c r="N28" s="64"/>
       <c r="O28" s="48">
         <f t="shared" si="3"/>
@@ -11059,10 +10765,10 @@
         <v>0.75</v>
       </c>
       <c r="G29" s="85"/>
-      <c r="H29" s="144" t="s">
+      <c r="H29" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="143"/>
       <c r="J29" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11071,8 +10777,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L29" s="146"/>
-      <c r="M29" s="147"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="145"/>
       <c r="N29" s="64"/>
       <c r="O29" s="48">
         <f t="shared" si="3"/>
@@ -11118,10 +10824,10 @@
         <v>0.75</v>
       </c>
       <c r="G30" s="85"/>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="145"/>
+      <c r="I30" s="143"/>
       <c r="J30" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11130,8 +10836,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L30" s="146"/>
-      <c r="M30" s="147"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="145"/>
       <c r="N30" s="64"/>
       <c r="O30" s="48">
         <f t="shared" si="3"/>
@@ -11177,10 +10883,10 @@
         <v>0.75</v>
       </c>
       <c r="G31" s="85"/>
-      <c r="H31" s="144" t="s">
+      <c r="H31" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="145"/>
+      <c r="I31" s="143"/>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11189,8 +10895,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L31" s="146"/>
-      <c r="M31" s="147"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="145"/>
       <c r="N31" s="64"/>
       <c r="O31" s="48">
         <f t="shared" si="3"/>
@@ -11230,8 +10936,8 @@
       <c r="E32" s="86"/>
       <c r="F32" s="95"/>
       <c r="G32" s="85"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="145"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
       <c r="J32" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11240,10 +10946,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="146" t="s">
+      <c r="L32" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="147"/>
+      <c r="M32" s="145"/>
       <c r="N32" s="64"/>
       <c r="O32" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11283,8 +10989,8 @@
       <c r="E33" s="86"/>
       <c r="F33" s="95"/>
       <c r="G33" s="85"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="145"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
       <c r="J33" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11293,8 +10999,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L33" s="146"/>
-      <c r="M33" s="147"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="145"/>
       <c r="N33" s="64"/>
       <c r="O33" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11334,8 +11040,8 @@
       <c r="E34" s="86"/>
       <c r="F34" s="95"/>
       <c r="G34" s="85"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="145"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
       <c r="J34" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11344,8 +11050,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L34" s="146"/>
-      <c r="M34" s="147"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="145"/>
       <c r="N34" s="64"/>
       <c r="O34" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11391,10 +11097,10 @@
         <v>0.75</v>
       </c>
       <c r="G35" s="85"/>
-      <c r="H35" s="144" t="s">
+      <c r="H35" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="145"/>
+      <c r="I35" s="143"/>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11403,8 +11109,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L35" s="146"/>
-      <c r="M35" s="147"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="145"/>
       <c r="N35" s="64"/>
       <c r="O35" s="48">
         <f t="shared" si="3"/>
@@ -11450,10 +11156,10 @@
         <v>0.75</v>
       </c>
       <c r="G36" s="85"/>
-      <c r="H36" s="144" t="s">
+      <c r="H36" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="145"/>
+      <c r="I36" s="143"/>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11462,8 +11168,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L36" s="146"/>
-      <c r="M36" s="147"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="145"/>
       <c r="N36" s="64"/>
       <c r="O36" s="48">
         <f t="shared" si="3"/>
@@ -11509,10 +11215,10 @@
         <v>0.75</v>
       </c>
       <c r="G37" s="85"/>
-      <c r="H37" s="144" t="s">
+      <c r="H37" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="145"/>
+      <c r="I37" s="143"/>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11521,8 +11227,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L37" s="146"/>
-      <c r="M37" s="147"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="145"/>
       <c r="N37" s="64"/>
       <c r="O37" s="48">
         <f t="shared" si="3"/>
@@ -11568,10 +11274,10 @@
         <v>0.75</v>
       </c>
       <c r="G38" s="85"/>
-      <c r="H38" s="144" t="s">
+      <c r="H38" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="145"/>
+      <c r="I38" s="143"/>
       <c r="J38" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -11580,8 +11286,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L38" s="146"/>
-      <c r="M38" s="147"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="145"/>
       <c r="N38" s="64"/>
       <c r="O38" s="48">
         <f t="shared" si="3"/>
@@ -11627,10 +11333,10 @@
         <v>0.75</v>
       </c>
       <c r="G39" s="85"/>
-      <c r="H39" s="144" t="s">
+      <c r="H39" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="145"/>
+      <c r="I39" s="143"/>
       <c r="J39" s="46">
         <f>IF(F39="","",R39+S39-T39-U39-V39-W39)</f>
         <v>3</v>
@@ -11639,8 +11345,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L39" s="146"/>
-      <c r="M39" s="147"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="145"/>
       <c r="N39" s="64"/>
       <c r="O39" s="48">
         <f t="shared" si="3"/>
@@ -11680,8 +11386,8 @@
       <c r="E40" s="86"/>
       <c r="F40" s="95"/>
       <c r="G40" s="85"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="145"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="143"/>
       <c r="J40" s="46" t="str">
         <f>IF(F40="","",R40+S40-T40-U40-V40-W40)</f>
         <v/>
@@ -11690,8 +11396,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L40" s="146"/>
-      <c r="M40" s="147"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="145"/>
       <c r="N40" s="64"/>
       <c r="O40" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11731,8 +11437,8 @@
       <c r="E41" s="86"/>
       <c r="F41" s="95"/>
       <c r="G41" s="85"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="145"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="143"/>
       <c r="J41" s="46" t="str">
         <f>IF(F41="","",R41+S41-T41-U41-V41-W41)</f>
         <v/>
@@ -11741,8 +11447,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L41" s="146"/>
-      <c r="M41" s="147"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="145"/>
       <c r="N41" s="64"/>
       <c r="O41" s="48" t="str">
         <f t="shared" si="3"/>
@@ -11792,8 +11498,8 @@
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="L42" s="148"/>
-      <c r="M42" s="149"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="141"/>
       <c r="N42" s="71"/>
       <c r="O42" s="55"/>
       <c r="P42" s="55"/>
@@ -15493,67 +15199,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="T3:V3"/>
@@ -15562,6 +15207,67 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:M41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="C12:C41">
